--- a/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_train.xlsx
+++ b/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_train.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8160651478816944</v>
+        <v>0.8131175059952039</v>
       </c>
       <c r="C4">
-        <v>0.004364780245033728</v>
+        <v>0.003903815581947412</v>
       </c>
       <c r="D4">
-        <v>0.4326718827935803</v>
+        <v>0.4282002179717865</v>
       </c>
       <c r="E4">
-        <v>0.006303237693922881</v>
+        <v>0.006662436556208684</v>
       </c>
       <c r="F4">
-        <v>0.9716666666666667</v>
+        <v>0.9741666666666667</v>
       </c>
       <c r="G4">
-        <v>0.002822418444431429</v>
+        <v>0.002742462596697859</v>
       </c>
       <c r="H4">
-        <v>0.2790451486999408</v>
+        <v>0.2752099698414339</v>
       </c>
       <c r="I4">
-        <v>0.005406049687127101</v>
+        <v>0.005690304127254298</v>
       </c>
       <c r="J4">
-        <v>0.9804485562049318</v>
+        <v>0.9816237309653126</v>
       </c>
       <c r="K4">
-        <v>0.001605083220731052</v>
+        <v>0.001736560934309295</v>
       </c>
       <c r="L4">
-        <v>0.3399280575539568</v>
+        <v>0.3245323741007194</v>
       </c>
       <c r="M4">
-        <v>0.019958509322338</v>
+        <v>0.02101106335874336</v>
       </c>
       <c r="N4">
-        <v>0.4698857142857142</v>
+        <v>0.4581714285714287</v>
       </c>
       <c r="O4">
-        <v>0.01536311218773229</v>
+        <v>0.01621959251891802</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.823004081632653</v>
+        <v>0.8245163265306121</v>
       </c>
       <c r="C5">
-        <v>0.004635165528511731</v>
+        <v>0.003554810789426099</v>
       </c>
       <c r="D5">
-        <v>0.4474733162122286</v>
+        <v>0.4460721225170655</v>
       </c>
       <c r="E5">
-        <v>0.01120690166340399</v>
+        <v>0.007877700215474348</v>
       </c>
       <c r="F5">
-        <v>0.9617142857142855</v>
+        <v>0.9637142857142856</v>
       </c>
       <c r="G5">
-        <v>0.004126053504966642</v>
+        <v>0.003208496980614317</v>
       </c>
       <c r="H5">
-        <v>0.2939652367378247</v>
+        <v>0.2914209681839367</v>
       </c>
       <c r="I5">
-        <v>0.009858167433143994</v>
+        <v>0.007027014978184254</v>
       </c>
       <c r="J5">
-        <v>0.979142836950944</v>
+        <v>0.978855329490504</v>
       </c>
       <c r="K5">
-        <v>0.001903692129454959</v>
+        <v>0.001344465900471659</v>
       </c>
       <c r="L5">
-        <v>0.3952857142857143</v>
+        <v>0.401</v>
       </c>
       <c r="M5">
-        <v>0.03222141517750349</v>
+        <v>0.02143485150994584</v>
       </c>
       <c r="N5">
-        <v>0.5085714285714286</v>
+        <v>0.5135428571428572</v>
       </c>
       <c r="O5">
-        <v>0.02501825580203265</v>
+        <v>0.01659339841986876</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9041582491582489</v>
+        <v>0.9005050505050504</v>
       </c>
       <c r="C6">
-        <v>0.00490901256267362</v>
+        <v>0.005079237527927383</v>
       </c>
       <c r="D6">
-        <v>0.6605646377614827</v>
+        <v>0.6497749584510945</v>
       </c>
       <c r="E6">
-        <v>0.01549242578178722</v>
+        <v>0.01671226786405444</v>
       </c>
       <c r="F6">
-        <v>0.9209090909090907</v>
+        <v>0.9218181818181815</v>
       </c>
       <c r="G6">
-        <v>0.006096915494360422</v>
+        <v>0.006290600665770141</v>
       </c>
       <c r="H6">
-        <v>0.5231562713776855</v>
+        <v>0.5107224778026793</v>
       </c>
       <c r="I6">
-        <v>0.01996750001040903</v>
+        <v>0.02103576580196878</v>
       </c>
       <c r="J6">
-        <v>0.9810346255367622</v>
+        <v>0.981010666776206</v>
       </c>
       <c r="K6">
-        <v>0.001487921540488713</v>
+        <v>0.001561042414881197</v>
       </c>
       <c r="L6">
-        <v>0.8138888888888889</v>
+        <v>0.802037037037037</v>
       </c>
       <c r="M6">
-        <v>0.01599003740136629</v>
+        <v>0.01785432308281032</v>
       </c>
       <c r="N6">
-        <v>0.8320000000000002</v>
+        <v>0.8223076923076923</v>
       </c>
       <c r="O6">
-        <v>0.01261012248752069</v>
+        <v>0.01417528217387898</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,16 +644,16 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9216666666666665</v>
+        <v>0.9230471380471379</v>
       </c>
       <c r="C7">
-        <v>0.005487546672622856</v>
+        <v>0.004709339838930404</v>
       </c>
       <c r="D7">
-        <v>0.7256060354918726</v>
+        <v>0.7304271553322103</v>
       </c>
       <c r="E7">
-        <v>0.01860884358261061</v>
+        <v>0.01392049374559279</v>
       </c>
       <c r="F7">
         <v>0.9109090909090907</v>
@@ -662,28 +662,28 @@
         <v>0.002538089361747597</v>
       </c>
       <c r="H7">
-        <v>0.6143168811492644</v>
+        <v>0.6159935567478642</v>
       </c>
       <c r="I7">
-        <v>0.02560716708602062</v>
+        <v>0.01921768710688554</v>
       </c>
       <c r="J7">
-        <v>0.9794921769885722</v>
+        <v>0.9796652741980398</v>
       </c>
       <c r="K7">
-        <v>0.000680135294666373</v>
+        <v>0.0006366313711319016</v>
       </c>
       <c r="L7">
-        <v>0.8683333333333333</v>
+        <v>0.876111111111111</v>
       </c>
       <c r="M7">
-        <v>0.01478943384457831</v>
+        <v>0.01068665240191113</v>
       </c>
       <c r="N7">
-        <v>0.8755384615384615</v>
+        <v>0.882</v>
       </c>
       <c r="O7">
-        <v>0.01213397104223823</v>
+        <v>0.008818143080407848</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8449901960784314</v>
+        <v>0.8413921568627452</v>
       </c>
       <c r="C8">
-        <v>0.005811294949094048</v>
+        <v>0.005903517356074417</v>
       </c>
       <c r="D8">
-        <v>0.4622006163801581</v>
+        <v>0.4552854792451615</v>
       </c>
       <c r="E8">
-        <v>0.01908954517777378</v>
+        <v>0.01911563626744955</v>
       </c>
       <c r="F8">
-        <v>0.9280000000000003</v>
+        <v>0.9320000000000003</v>
       </c>
       <c r="G8">
-        <v>0.007095588335519265</v>
+        <v>0.00683872624365478</v>
       </c>
       <c r="H8">
-        <v>0.3155333498267249</v>
+        <v>0.3088580622358413</v>
       </c>
       <c r="I8">
-        <v>0.01776026175798234</v>
+        <v>0.01748908786210551</v>
       </c>
       <c r="J8">
-        <v>0.9772287786854941</v>
+        <v>0.9777348311560187</v>
       </c>
       <c r="K8">
-        <v>0.001865366896321996</v>
+        <v>0.001788119256905474</v>
       </c>
       <c r="L8">
-        <v>0.546372549019608</v>
+        <v>0.530686274509804</v>
       </c>
       <c r="M8">
-        <v>0.04282170805913477</v>
+        <v>0.04271427736711686</v>
       </c>
       <c r="N8">
-        <v>0.6089344262295082</v>
+        <v>0.5964754098360655</v>
       </c>
       <c r="O8">
-        <v>0.03472924509058251</v>
+        <v>0.03466421967995215</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8601481859989779</v>
+        <v>0.8633367399080225</v>
       </c>
       <c r="C9">
-        <v>0.004837773595597006</v>
+        <v>0.005623550108766695</v>
       </c>
       <c r="D9">
-        <v>0.4923939470270715</v>
+        <v>0.481539830065833</v>
       </c>
       <c r="E9">
-        <v>0.0154634961393639</v>
+        <v>0.01480107622428473</v>
       </c>
       <c r="F9">
-        <v>0.9131578947368422</v>
+        <v>0.92</v>
       </c>
       <c r="G9">
-        <v>0.006006529432275642</v>
+        <v>0.007344101355106547</v>
       </c>
       <c r="H9">
-        <v>0.342673349662776</v>
+        <v>0.3312053235796801</v>
       </c>
       <c r="I9">
-        <v>0.01527822269939411</v>
+        <v>0.01388131347323263</v>
       </c>
       <c r="J9">
-        <v>0.9766032313216745</v>
+        <v>0.9784138983000288</v>
       </c>
       <c r="K9">
-        <v>0.00132954614452141</v>
+        <v>0.001783994924045018</v>
       </c>
       <c r="L9">
-        <v>0.6476699029126215</v>
+        <v>0.6260194174757282</v>
       </c>
       <c r="M9">
-        <v>0.02693557937315483</v>
+        <v>0.03017689495476839</v>
       </c>
       <c r="N9">
-        <v>0.6890163934426231</v>
+        <v>0.6718032786885247</v>
       </c>
       <c r="O9">
-        <v>0.02196798981206438</v>
+        <v>0.02455921317644028</v>
       </c>
     </row>
   </sheetData>
